--- a/Extraksi Fitur Kolam Lele.xlsx
+++ b/Extraksi Fitur Kolam Lele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G486"/>
+  <dimension ref="A1:G488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11625,6 +11625,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>17.06756218112245</v>
+      </c>
+      <c r="B487" t="n">
+        <v>22.65664859693878</v>
+      </c>
+      <c r="C487" t="n">
+        <v>11.95938297193878</v>
+      </c>
+      <c r="D487" t="n">
+        <v>73.83432318239795</v>
+      </c>
+      <c r="E487" t="n">
+        <v>123.2967952806122</v>
+      </c>
+      <c r="F487" t="n">
+        <v>22.669921875</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>169.9232700892857</v>
+      </c>
+      <c r="B488" t="n">
+        <v>203.407565369898</v>
+      </c>
+      <c r="C488" t="n">
+        <v>147.9110730229592</v>
+      </c>
+      <c r="D488" t="n">
+        <v>71.86086973852041</v>
+      </c>
+      <c r="E488" t="n">
+        <v>69.59799505739795</v>
+      </c>
+      <c r="F488" t="n">
+        <v>203.407565369898</v>
+      </c>
+      <c r="G488" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Extraksi Fitur Kolam Lele.xlsx
+++ b/Extraksi Fitur Kolam Lele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G488"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11671,6 +11671,305 @@
         <v>2</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>38.07473692602041</v>
+      </c>
+      <c r="B489" t="n">
+        <v>49.27208227040816</v>
+      </c>
+      <c r="C489" t="n">
+        <v>29.29888791454082</v>
+      </c>
+      <c r="D489" t="n">
+        <v>74.33187181122449</v>
+      </c>
+      <c r="E489" t="n">
+        <v>106.3928571428571</v>
+      </c>
+      <c r="F489" t="n">
+        <v>49.306640625</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>26.65340003188776</v>
+      </c>
+      <c r="B490" t="n">
+        <v>15.39255819515306</v>
+      </c>
+      <c r="C490" t="n">
+        <v>12.93299585459184</v>
+      </c>
+      <c r="D490" t="n">
+        <v>114.1274912308673</v>
+      </c>
+      <c r="E490" t="n">
+        <v>129.2204838966837</v>
+      </c>
+      <c r="F490" t="n">
+        <v>26.68885522959184</v>
+      </c>
+      <c r="G490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>149.8876554528061</v>
+      </c>
+      <c r="B491" t="n">
+        <v>215.750657684949</v>
+      </c>
+      <c r="C491" t="n">
+        <v>160.8914221938776</v>
+      </c>
+      <c r="D491" t="n">
+        <v>55.21452487244898</v>
+      </c>
+      <c r="E491" t="n">
+        <v>77.68359375</v>
+      </c>
+      <c r="F491" t="n">
+        <v>215.750657684949</v>
+      </c>
+      <c r="G491" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>14.19463488520408</v>
+      </c>
+      <c r="B492" t="n">
+        <v>35.80863360969388</v>
+      </c>
+      <c r="C492" t="n">
+        <v>20.3356784119898</v>
+      </c>
+      <c r="D492" t="n">
+        <v>47.25053810586735</v>
+      </c>
+      <c r="E492" t="n">
+        <v>134.3172831632653</v>
+      </c>
+      <c r="F492" t="n">
+        <v>35.81056680484694</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>17.41836734693878</v>
+      </c>
+      <c r="B493" t="n">
+        <v>33.84442761479592</v>
+      </c>
+      <c r="C493" t="n">
+        <v>20.00203284438776</v>
+      </c>
+      <c r="D493" t="n">
+        <v>55.29565927933673</v>
+      </c>
+      <c r="E493" t="n">
+        <v>125.7499601403061</v>
+      </c>
+      <c r="F493" t="n">
+        <v>33.84442761479592</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>191.8510044642857</v>
+      </c>
+      <c r="B494" t="n">
+        <v>194.6167889030612</v>
+      </c>
+      <c r="C494" t="n">
+        <v>118.7255261479592</v>
+      </c>
+      <c r="D494" t="n">
+        <v>88.91798867984694</v>
+      </c>
+      <c r="E494" t="n">
+        <v>99.64020647321429</v>
+      </c>
+      <c r="F494" t="n">
+        <v>194.8495695153061</v>
+      </c>
+      <c r="G494" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>20.31855867346939</v>
+      </c>
+      <c r="B495" t="n">
+        <v>33.49806680484694</v>
+      </c>
+      <c r="C495" t="n">
+        <v>14.43837691326531</v>
+      </c>
+      <c r="D495" t="n">
+        <v>68.98507254464286</v>
+      </c>
+      <c r="E495" t="n">
+        <v>144.7619778380102</v>
+      </c>
+      <c r="F495" t="n">
+        <v>33.49806680484694</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>21.25215242346939</v>
+      </c>
+      <c r="B496" t="n">
+        <v>30.13773517219388</v>
+      </c>
+      <c r="C496" t="n">
+        <v>20.18877551020408</v>
+      </c>
+      <c r="D496" t="n">
+        <v>62.76771763392857</v>
+      </c>
+      <c r="E496" t="n">
+        <v>87.44620934311224</v>
+      </c>
+      <c r="F496" t="n">
+        <v>30.13773517219388</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>115.5197106186225</v>
+      </c>
+      <c r="B497" t="n">
+        <v>112.9786352040816</v>
+      </c>
+      <c r="C497" t="n">
+        <v>98.95023517219387</v>
+      </c>
+      <c r="D497" t="n">
+        <v>93.70469945790816</v>
+      </c>
+      <c r="E497" t="n">
+        <v>42.12671396683673</v>
+      </c>
+      <c r="F497" t="n">
+        <v>115.684231505102</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>115.5197106186225</v>
+      </c>
+      <c r="B498" t="n">
+        <v>112.9786352040816</v>
+      </c>
+      <c r="C498" t="n">
+        <v>98.95023517219387</v>
+      </c>
+      <c r="D498" t="n">
+        <v>93.70469945790816</v>
+      </c>
+      <c r="E498" t="n">
+        <v>42.12671396683673</v>
+      </c>
+      <c r="F498" t="n">
+        <v>115.684231505102</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>115.5197106186225</v>
+      </c>
+      <c r="B499" t="n">
+        <v>112.9786352040816</v>
+      </c>
+      <c r="C499" t="n">
+        <v>98.95023517219387</v>
+      </c>
+      <c r="D499" t="n">
+        <v>93.70469945790816</v>
+      </c>
+      <c r="E499" t="n">
+        <v>42.12671396683673</v>
+      </c>
+      <c r="F499" t="n">
+        <v>115.684231505102</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>115.5197106186225</v>
+      </c>
+      <c r="B500" t="n">
+        <v>112.9786352040816</v>
+      </c>
+      <c r="C500" t="n">
+        <v>98.95023517219387</v>
+      </c>
+      <c r="D500" t="n">
+        <v>93.70469945790816</v>
+      </c>
+      <c r="E500" t="n">
+        <v>42.12671396683673</v>
+      </c>
+      <c r="F500" t="n">
+        <v>115.684231505102</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>115.5197106186225</v>
+      </c>
+      <c r="B501" t="n">
+        <v>112.9786352040816</v>
+      </c>
+      <c r="C501" t="n">
+        <v>98.95023517219387</v>
+      </c>
+      <c r="D501" t="n">
+        <v>93.70469945790816</v>
+      </c>
+      <c r="E501" t="n">
+        <v>42.12671396683673</v>
+      </c>
+      <c r="F501" t="n">
+        <v>115.684231505102</v>
+      </c>
+      <c r="G501" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
